--- a/artfynd/A 2295-2026 artfynd.xlsx
+++ b/artfynd/A 2295-2026 artfynd.xlsx
@@ -793,7 +793,7 @@
         <v>131288038</v>
       </c>
       <c r="B3" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>131288044</v>
       </c>
       <c r="B5" t="n">
-        <v>91773</v>
+        <v>91776</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
